--- a/Monthly Expense.xlsx
+++ b/Monthly Expense.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4215cc41a0b0685/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC6929F5-1350-4E77-9E8A-AF97DAFF9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB9C94A-C685-49CB-8389-729322C85FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ADBF90AD-6293-416E-AE35-7582147A87F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{ADBF90AD-6293-416E-AE35-7582147A87F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Expense 2023" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="36">
   <si>
     <t>Total</t>
   </si>
@@ -142,7 +142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -275,9 +275,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,10 +284,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -622,7 +622,7 @@
   <dimension ref="C5:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEE8979-C199-471B-A5B3-36B02601060E}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,760 +658,760 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="6">
         <f>'Expense 2023'!D5</f>
         <v>5000</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="5">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="10">
         <v>45292</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="7"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>45292</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>65000</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>45292</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>7500</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>10000</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <v>2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>45292</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>1200</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>19500</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <v>3</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>45292</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>15000</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>15000</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
         <v>4</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>45292</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>10000</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>30000</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
         <v>5</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>45293</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>20</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
         <v>6</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>45293</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>50</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
         <v>7</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>45294</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>25</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
         <v>8</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>45294</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>30</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
         <v>9</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>45296</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>50</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
         <v>10</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>45296</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>20</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
         <v>11</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>45297</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>18</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
         <v>12</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>45298</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>210</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
         <v>13</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>45298</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>20</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
         <v>14</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>45300</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>10</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
         <v>15</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>45300</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>10</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
         <v>16</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>45301</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>10</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
         <v>17</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>45302</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>20</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
         <v>18</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>45303</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>50</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
         <v>19</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>45304</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>40</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
         <v>20</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>45304</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>30</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
         <v>21</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>45305</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>120</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6">
         <v>22</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>45305</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>20</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7">
+      <c r="A26" s="8"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
         <v>23</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>45307</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>25</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
         <v>24</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>45307</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>20</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7">
+      <c r="A28" s="8"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6">
         <v>25</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>45310</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>25</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7">
+      <c r="A29" s="8"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
         <v>26</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>45310</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>30</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7">
+      <c r="A30" s="8"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6">
         <v>27</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>45315</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>880</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7">
+      <c r="A31" s="8"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6">
         <v>28</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>45317</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>100</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
         <v>29</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>45319</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>240</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7">
+      <c r="A33" s="8"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6">
         <v>30</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>45321</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>30</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <f>SUM(C4:C34)</f>
         <v>139500</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="6" t="s">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <f>SUM(I4:I33)</f>
         <v>35803</v>
       </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="E41" s="11" t="s">
@@ -1451,18 +1451,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5E995D-6E88-4989-9979-6C21EAFDD484}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +1476,776 @@
         <v>108697</v>
       </c>
     </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="10">
+        <v>45292</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>45323</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>65000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>45323</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="6">
+        <v>7500</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>45324</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1200</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6">
+        <v>15000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>45325</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="6">
+        <v>15000</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>15000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>45326</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>45327</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="6">
+        <v>20</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>6</v>
+      </c>
+      <c r="G9" s="8">
+        <v>45328</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="6">
+        <v>50</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>7</v>
+      </c>
+      <c r="G10" s="8">
+        <v>45329</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="6">
+        <v>25</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>8</v>
+      </c>
+      <c r="G11" s="8">
+        <v>45330</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="6">
+        <v>30</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8">
+        <v>45331</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="6">
+        <v>50</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8">
+        <v>45332</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="6">
+        <v>20</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>11</v>
+      </c>
+      <c r="G14" s="8">
+        <v>45333</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="6">
+        <v>18</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>12</v>
+      </c>
+      <c r="G15" s="8">
+        <v>45334</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="6">
+        <v>210</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <v>13</v>
+      </c>
+      <c r="G16" s="8">
+        <v>45335</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="6">
+        <v>20</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <v>14</v>
+      </c>
+      <c r="G17" s="8">
+        <v>45336</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="6">
+        <v>10</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8">
+        <v>45337</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="6">
+        <v>10</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <v>16</v>
+      </c>
+      <c r="G19" s="8">
+        <v>45338</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="6">
+        <v>10</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>17</v>
+      </c>
+      <c r="G20" s="8">
+        <v>45339</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="6">
+        <v>20</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
+        <v>18</v>
+      </c>
+      <c r="G21" s="8">
+        <v>45340</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="6">
+        <v>100</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
+        <v>19</v>
+      </c>
+      <c r="G22" s="8">
+        <v>45341</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="6">
+        <v>40</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <v>20</v>
+      </c>
+      <c r="G23" s="8">
+        <v>45342</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="6">
+        <v>30</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <v>21</v>
+      </c>
+      <c r="G24" s="8">
+        <v>45343</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="6">
+        <v>120</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6">
+        <v>22</v>
+      </c>
+      <c r="G25" s="8">
+        <v>45344</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="6">
+        <v>20</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
+        <v>23</v>
+      </c>
+      <c r="G26" s="8">
+        <v>45345</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="6">
+        <v>25</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
+        <v>24</v>
+      </c>
+      <c r="G27" s="8">
+        <v>45346</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="6">
+        <v>20</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6">
+        <v>25</v>
+      </c>
+      <c r="G28" s="8">
+        <v>45347</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="6">
+        <v>25</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
+        <v>26</v>
+      </c>
+      <c r="G29" s="8">
+        <v>45348</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="6">
+        <v>30</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8">
+        <v>45349</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="6">
+        <v>880</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6">
+        <v>28</v>
+      </c>
+      <c r="G31" s="8">
+        <v>45350</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="6">
+        <v>100</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
+        <v>29</v>
+      </c>
+      <c r="G32" s="8">
+        <v>45351</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="6">
+        <v>240</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6">
+        <v>30</v>
+      </c>
+      <c r="G33" s="8">
+        <v>45351</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="6">
+        <v>300</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6">
+        <f>SUM(C4:C34)</f>
+        <v>125000</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <f>SUM(I4:I33)</f>
+        <v>36123</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="F40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <f>(B1+C35-I35)</f>
+        <v>197574</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="F40:H40"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>